--- a/trunk/Sprint3 User Stories.xlsx
+++ b/trunk/Sprint3 User Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>As a designer, I want to create five game levels.</t>
   </si>
@@ -33,9 +33,6 @@
     <t>As a programmer, I want to include saving and loading the game.</t>
   </si>
   <si>
-    <t>As a team, we want to fix our editors to meet the requirements.</t>
-  </si>
-  <si>
     <t>As a programmer, I want to add a Loading (Changing) Level State.</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>As a programmer, I want to improve spawn points and use scripting for them.</t>
   </si>
   <si>
-    <t>As a team member, I want to perform code maintenance to clean up and format.</t>
-  </si>
-  <si>
     <t>As a team member, I want to fill out the Credits State.</t>
   </si>
   <si>
@@ -73,6 +67,30 @@
   </si>
   <si>
     <t>User Stories</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to implement key-binding into the options menu.</t>
+  </si>
+  <si>
+    <t>As a team member, I want to modify the HUD to include a timer for hacking time limit and benefit timers.</t>
+  </si>
+  <si>
+    <t>As a team, we want to fix our editors to meet the base requirements.</t>
+  </si>
+  <si>
+    <t>As a team member, I will speak with the artist and implement the assets into the game.</t>
   </si>
 </sst>
 </file>
@@ -96,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,110 +438,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:A23"/>
+  <dimension ref="A4:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
